--- a/biology/Botanique/Eucnide_urens/Eucnide_urens.xlsx
+++ b/biology/Botanique/Eucnide_urens/Eucnide_urens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucnide urens est une espèce végétale de la famille des Loasaceae, originaire du nord du Mexique et du sud-ouest des États-Unis. 
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante de 30 à 60 cm de hauteur forme un buisson arrondi, généralement beaucoup plus large que haut, hérissé de poils blancs raides et piquants. Les feuilles, ovales et grossièrement dentées, mesurent de 2 à 6,3 cm de long et sont elles aussi couvertes de poils raides[1]. Ces poils piquants, lorsqu'ils proviennent de feuilles séchées, sont particulièrement irritants et difficiles à enlever[2]. 
-Appareil reproducteur
-La floraison a lieu entre avril et juin.
-Les fleurs, de couleur crème ou jaune pâle, mesurent de 2,5 à 5 cm de diamètre[1]. Leur corolle est constituée de cinq pétales larges, contenant un réseau opaque ménageant de petits espaces translucides. Les nombreuses étamines sont jointes à la base des pétales.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante de 30 à 60 cm de hauteur forme un buisson arrondi, généralement beaucoup plus large que haut, hérissé de poils blancs raides et piquants. Les feuilles, ovales et grossièrement dentées, mesurent de 2 à 6,3 cm de long et sont elles aussi couvertes de poils raides. Ces poils piquants, lorsqu'ils proviennent de feuilles séchées, sont particulièrement irritants et difficiles à enlever. 
 </t>
         </is>
       </c>
@@ -543,13 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eucnide urens vit dans le sud des États-Unis (Californie, Utah, Arizona) et au nord du Mexique (Basse-Californie).
-Elle pousse dans les zones désertiques sèches et rocailleuses, souvent à même le rocher, parfois sur les falaises.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre avril et juin.
+Les fleurs, de couleur crème ou jaune pâle, mesurent de 2,5 à 5 cm de diamètre. Leur corolle est constituée de cinq pétales larges, contenant un réseau opaque ménageant de petits espaces translucides. Les nombreuses étamines sont jointes à la base des pétales.
 </t>
         </is>
       </c>
@@ -575,10 +595,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucnide urens vit dans le sud des États-Unis (Californie, Utah, Arizona) et au nord du Mexique (Basse-Californie).
+Elle pousse dans les zones désertiques sèches et rocailleuses, souvent à même le rocher, parfois sur les falaises.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eucnide_urens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eucnide_urens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
